--- a/capiq_data/in_process_data/IQ27685.xlsx
+++ b/capiq_data/in_process_data/IQ27685.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A89E636-8D15-4BFB-93E6-700A0DE97514}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69B0FD-2FBF-4917-93AC-E5DEEA69E43B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"dbd77b55-538f-4dc8-bea7-debe09001750"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"61f38cdf-83a2-4e67-a0b4-bd914bc8b121"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
+  </si>
+  <si>
     <t>FQ32011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ32021</t>
+  </si>
+  <si>
+    <t>FQ42021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40481</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>93.2</v>
+        <v>64.671999999999997</v>
       </c>
       <c r="D2">
-        <v>1426.6</v>
+        <v>599.173</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>506</v>
+        <v>331.55700000000002</v>
       </c>
       <c r="G2">
-        <v>1366.4</v>
+        <v>477.51400000000001</v>
       </c>
       <c r="H2">
-        <v>2362.1</v>
+        <v>746.85900000000004</v>
       </c>
       <c r="I2">
-        <v>303.2</v>
+        <v>75.403999999999996</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>566.5</v>
+        <v>174.30500000000001</v>
       </c>
       <c r="O2">
-        <v>949.9</v>
+        <v>228.20099999999999</v>
       </c>
       <c r="P2">
-        <v>266.7</v>
+        <v>71.73</v>
       </c>
       <c r="Q2">
-        <v>-119.8</v>
+        <v>157.21199999999999</v>
       </c>
       <c r="R2">
-        <v>40481</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="T2">
-        <v>1412.2</v>
+        <v>518.65800000000002</v>
       </c>
       <c r="U2">
-        <v>309.5</v>
+        <v>181.166</v>
       </c>
       <c r="V2">
-        <v>21</v>
+        <v>197.048</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-52.6</v>
+        <v>-16.488</v>
       </c>
       <c r="Y2">
-        <v>0.2</v>
+        <v>25.183</v>
       </c>
       <c r="Z2">
-        <v>-31.5</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>93.2</v>
+        <v>64.671999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40572</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>162.5</v>
+        <v>10.782999999999999</v>
       </c>
       <c r="D3">
-        <v>1725.3</v>
+        <v>387.31900000000002</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1057.0999999999999</v>
+        <v>131.46100000000001</v>
       </c>
       <c r="G3">
-        <v>1333.3</v>
+        <v>456.72399999999999</v>
       </c>
       <c r="H3">
-        <v>2380.5</v>
+        <v>741.06100000000004</v>
       </c>
       <c r="I3">
-        <v>261.39999999999998</v>
+        <v>81.936000000000007</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-1.1040000000000001</v>
       </c>
       <c r="N3">
-        <v>532.79999999999995</v>
+        <v>154.846</v>
       </c>
       <c r="O3">
-        <v>921.5</v>
+        <v>209.791</v>
       </c>
       <c r="P3">
-        <v>266.5</v>
+        <v>70.864999999999995</v>
       </c>
       <c r="Q3">
-        <v>1.7</v>
+        <v>-115.182</v>
       </c>
       <c r="R3">
-        <v>40572</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>13060</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1459</v>
+        <v>531.27</v>
       </c>
       <c r="U3">
-        <v>311.2</v>
+        <v>65.983999999999995</v>
       </c>
       <c r="V3">
-        <v>343.9</v>
+        <v>-89.076999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-153.4</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>24.254000000000001</v>
       </c>
       <c r="Z3">
-        <v>-92.3</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>162.5</v>
+        <v>10.782999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40663</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>101</v>
+        <v>21.658000000000001</v>
       </c>
       <c r="D4">
-        <v>1545.9</v>
+        <v>440.36099999999999</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>540.79999999999995</v>
+        <v>157.08699999999999</v>
       </c>
       <c r="G4">
-        <v>1325.5</v>
+        <v>464.399</v>
       </c>
       <c r="H4">
-        <v>2381.3000000000002</v>
+        <v>772.274</v>
       </c>
       <c r="I4">
-        <v>276</v>
+        <v>94.691999999999993</v>
       </c>
       <c r="J4">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>504.7</v>
+        <v>168.744</v>
       </c>
       <c r="O4">
-        <v>894.6</v>
+        <v>218.001</v>
       </c>
       <c r="P4">
-        <v>267.8</v>
+        <v>63.975000000000001</v>
       </c>
       <c r="Q4">
-        <v>60.1</v>
+        <v>24.687999999999999</v>
       </c>
       <c r="R4">
-        <v>40663</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1486.7</v>
+        <v>554.27300000000002</v>
       </c>
       <c r="U4">
-        <v>371.3</v>
+        <v>90.671999999999997</v>
       </c>
       <c r="V4">
-        <v>156.30000000000001</v>
+        <v>66.988</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-75</v>
+        <v>-5.8129999999999997</v>
       </c>
       <c r="Y4">
-        <v>1.3</v>
+        <v>23.298999999999999</v>
       </c>
       <c r="Z4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>101</v>
+        <v>21.658000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40754</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>94.9</v>
+        <v>14.552</v>
       </c>
       <c r="D5">
-        <v>1542.4</v>
+        <v>444.745</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>542.4</v>
+        <v>154.29499999999999</v>
       </c>
       <c r="G5">
-        <v>1408.3</v>
+        <v>515.75199999999995</v>
       </c>
       <c r="H5">
-        <v>2478.9</v>
+        <v>844.91</v>
       </c>
       <c r="I5">
-        <v>302.7</v>
+        <v>135.72</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>495.8</v>
+        <v>222.816</v>
       </c>
       <c r="O5">
-        <v>891.2</v>
+        <v>276.99400000000003</v>
       </c>
       <c r="P5">
-        <v>266.60000000000002</v>
+        <v>63.152000000000001</v>
       </c>
       <c r="Q5">
-        <v>50.3</v>
+        <v>-45.828000000000003</v>
       </c>
       <c r="R5">
-        <v>40754</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1587.7</v>
+        <v>567.91600000000005</v>
       </c>
       <c r="U5">
-        <v>421.6</v>
+        <v>44.844000000000001</v>
       </c>
       <c r="V5">
-        <v>102.9</v>
+        <v>-9.3059999999999992</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-4.4000000000000004</v>
+        <v>-1.3049999999999999</v>
       </c>
       <c r="Y5">
-        <v>1.1000000000000001</v>
+        <v>22.387</v>
       </c>
       <c r="Z5">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>94.9</v>
+        <v>14.552</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40845</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>104.5</v>
+        <v>76.087999999999994</v>
       </c>
       <c r="D6">
-        <v>1596.6</v>
+        <v>714.846</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>560.6</v>
+        <v>395.82600000000002</v>
       </c>
       <c r="G6">
-        <v>1332.5</v>
+        <v>560.779</v>
       </c>
       <c r="H6">
-        <v>2431.1999999999998</v>
+        <v>902.048</v>
       </c>
       <c r="I6">
-        <v>351.9</v>
+        <v>58.09</v>
       </c>
       <c r="J6">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>587.1</v>
+        <v>201.02199999999999</v>
       </c>
       <c r="O6">
-        <v>984.3</v>
+        <v>250.31200000000001</v>
       </c>
       <c r="P6">
-        <v>266.3</v>
+        <v>62.371000000000002</v>
       </c>
       <c r="Q6">
-        <v>-141.4</v>
+        <v>191.809</v>
       </c>
       <c r="R6">
-        <v>40845</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="T6">
-        <v>1446.9</v>
+        <v>651.73599999999999</v>
       </c>
       <c r="U6">
-        <v>280.2</v>
+        <v>236.65299999999999</v>
       </c>
       <c r="V6">
-        <v>59.5</v>
+        <v>210.12100000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-248.2</v>
+        <v>5.14</v>
       </c>
       <c r="Y6">
-        <v>0.8</v>
+        <v>21.506</v>
       </c>
       <c r="Z6">
-        <v>123.8</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>104.5</v>
+        <v>76.087999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40936</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>187.9</v>
+        <v>28.082000000000001</v>
       </c>
       <c r="D7">
-        <v>1945.6</v>
+        <v>509.66800000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1158.0999999999999</v>
+        <v>184.50899999999999</v>
       </c>
       <c r="G7">
-        <v>1209.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2328.6</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>286.7</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-6.9649999999999999</v>
       </c>
       <c r="N7">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>265.5</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>8.1</v>
+        <v>-81.119</v>
       </c>
       <c r="R7">
-        <v>40936</v>
+        <v>37376</v>
       </c>
       <c r="S7">
-        <v>14170</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1344.6</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>288.3</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>367.8</v>
+        <v>-60.442</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-295.60000000000002</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,36 +1346,36 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>187.9</v>
+        <v>28.082000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41027</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>116.1</v>
+        <v>24.626000000000001</v>
       </c>
       <c r="D8">
-        <v>1723.6</v>
+        <v>512.44399999999996</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>602.70000000000005</v>
+        <v>183.12299999999999</v>
       </c>
       <c r="G8">
-        <v>1304.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2451.1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>319.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>970.5</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>265.7</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>94</v>
+        <v>0.45</v>
       </c>
       <c r="R8">
-        <v>41027</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1480.6</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>382.3</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>134.5</v>
+        <v>38.741</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>25</v>
+        <v>10.634</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-16.5</v>
       </c>
       <c r="AA8">
-        <v>116.1</v>
+        <v>24.626000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41118</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>119.2</v>
+        <v>30.893999999999998</v>
       </c>
       <c r="D9">
-        <v>1704.6</v>
+        <v>556.86400000000003</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>599.6</v>
+        <v>205.18299999999999</v>
       </c>
       <c r="G9">
-        <v>1321.6</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2499.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>352.4</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>580.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>976.7</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>264.3</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-2.5</v>
+        <v>-38.378</v>
       </c>
       <c r="R9">
-        <v>41118</v>
+        <v>37560</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1523</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>379.8</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>145.30000000000001</v>
+        <v>-7.415</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-71.3</v>
+        <v>-0.06</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA9">
-        <v>119.2</v>
+        <v>30.893999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41209</v>
+        <v>37653</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>155.4</v>
+        <v>-209.90199999999999</v>
       </c>
       <c r="D10">
-        <v>1720.5</v>
+        <v>350.49200000000002</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>599.6</v>
+        <v>142.721</v>
       </c>
       <c r="G10">
-        <v>1408.5</v>
+        <v>769.38199999999995</v>
       </c>
       <c r="H10">
-        <v>2639.3</v>
+        <v>1304.239</v>
       </c>
       <c r="I10">
-        <v>420</v>
+        <v>137.66800000000001</v>
       </c>
       <c r="J10">
-        <v>250</v>
+        <v>146.62799999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>701</v>
+        <v>267.06</v>
       </c>
       <c r="O10">
-        <v>1100.4000000000001</v>
+        <v>458.42</v>
       </c>
       <c r="P10">
-        <v>264.3</v>
+        <v>194.72200000000001</v>
       </c>
       <c r="Q10">
-        <v>-157.4</v>
+        <v>-539.63300000000004</v>
       </c>
       <c r="R10">
-        <v>41209</v>
+        <v>37653</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1538.9</v>
+        <v>845.81899999999996</v>
       </c>
       <c r="U10">
-        <v>222.4</v>
+        <v>237.30199999999999</v>
       </c>
       <c r="V10">
-        <v>33.6</v>
+        <v>-259.23200000000003</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-157.1</v>
+        <v>-14.91</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>17.283000000000001</v>
       </c>
       <c r="Z10">
-        <v>62.3</v>
+        <v>-235.44</v>
       </c>
       <c r="AA10">
-        <v>155.4</v>
+        <v>-209.90199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41307</v>
+        <v>37744</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>228.6</v>
+        <v>32.795000000000002</v>
       </c>
       <c r="D11">
-        <v>2245.8000000000002</v>
+        <v>615.56799999999998</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1308.3</v>
+        <v>217.78800000000001</v>
       </c>
       <c r="G11">
-        <v>1473.5</v>
+        <v>701.22199999999998</v>
       </c>
       <c r="H11">
-        <v>2752</v>
+        <v>1278.5429999999999</v>
       </c>
       <c r="I11">
-        <v>346.5</v>
+        <v>89.644000000000005</v>
       </c>
       <c r="J11">
-        <v>257</v>
+        <v>142.422</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-7.657</v>
       </c>
       <c r="N11">
-        <v>676.2</v>
+        <v>205.22399999999999</v>
       </c>
       <c r="O11">
-        <v>1084.7</v>
+        <v>398.23099999999999</v>
       </c>
       <c r="P11">
-        <v>271.3</v>
+        <v>190.06700000000001</v>
       </c>
       <c r="Q11">
-        <v>177.5</v>
+        <v>-147.429</v>
       </c>
       <c r="R11">
-        <v>41307</v>
+        <v>37744</v>
       </c>
       <c r="S11">
-        <v>15380</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1667.3</v>
+        <v>880.31200000000001</v>
       </c>
       <c r="U11">
-        <v>399.9</v>
+        <v>89.873000000000005</v>
       </c>
       <c r="V11">
-        <v>364.3</v>
+        <v>-54.298999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-100</v>
+        <v>-6.1630000000000003</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>16.917000000000002</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-23.66</v>
       </c>
       <c r="AA11">
-        <v>228.6</v>
+        <v>32.795000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41398</v>
+        <v>37836</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>133.5</v>
+        <v>28.798999999999999</v>
       </c>
       <c r="D12">
-        <v>1865.8</v>
+        <v>626.02800000000002</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>656</v>
+        <v>221.107</v>
       </c>
       <c r="G12">
-        <v>1489.8</v>
+        <v>649.13300000000004</v>
       </c>
       <c r="H12">
-        <v>2811.8</v>
+        <v>1330.998</v>
       </c>
       <c r="I12">
-        <v>392.6</v>
+        <v>108.324</v>
       </c>
       <c r="J12">
-        <v>257</v>
+        <v>142.422</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>663</v>
+        <v>211.131</v>
       </c>
       <c r="O12">
-        <v>1072.0999999999999</v>
+        <v>411.10599999999999</v>
       </c>
       <c r="P12">
-        <v>271.3</v>
+        <v>189.88</v>
       </c>
       <c r="Q12">
-        <v>-16.600000000000001</v>
+        <v>10.475</v>
       </c>
       <c r="R12">
-        <v>41398</v>
+        <v>37836</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1739.7</v>
+        <v>919.89200000000005</v>
       </c>
       <c r="U12">
-        <v>383.3</v>
+        <v>100.348</v>
       </c>
       <c r="V12">
-        <v>129.30000000000001</v>
+        <v>57.402999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-57.4</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>16.218</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>87.185000000000002</v>
       </c>
       <c r="AA12">
-        <v>133.5</v>
+        <v>28.798999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41489</v>
+        <v>37926</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>124.7</v>
+        <v>36.161000000000001</v>
       </c>
       <c r="D13">
-        <v>1854.9</v>
+        <v>665.21100000000001</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>648.70000000000005</v>
+        <v>243.59899999999999</v>
       </c>
       <c r="G13">
-        <v>1533.2</v>
+        <v>757.08399999999995</v>
       </c>
       <c r="H13">
-        <v>2908.3</v>
+        <v>1493.325</v>
       </c>
       <c r="I13">
-        <v>418.8</v>
+        <v>167.446</v>
       </c>
       <c r="J13">
-        <v>257</v>
+        <v>142.422</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>671.8</v>
+        <v>324.37700000000001</v>
       </c>
       <c r="O13">
-        <v>1082.4000000000001</v>
+        <v>523.79999999999995</v>
       </c>
       <c r="P13">
-        <v>269.8</v>
+        <v>226.892</v>
       </c>
       <c r="Q13">
-        <v>30.4</v>
+        <v>-33.21</v>
       </c>
       <c r="R13">
-        <v>41489</v>
+        <v>37926</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1825.9</v>
+        <v>969.52499999999998</v>
       </c>
       <c r="U13">
-        <v>413.7</v>
+        <v>67.138000000000005</v>
       </c>
       <c r="V13">
-        <v>171</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-43.1</v>
+        <v>46.646999999999998</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>14.532999999999999</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>124.7</v>
+        <v>36.161000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41580</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>125.4</v>
+        <v>79.828000000000003</v>
       </c>
       <c r="D14">
-        <v>1884.7</v>
+        <v>893.06500000000005</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>659.9</v>
+        <v>504.27499999999998</v>
       </c>
       <c r="G14">
-        <v>1487.8</v>
+        <v>722.56899999999996</v>
       </c>
       <c r="H14">
-        <v>2882.8</v>
+        <v>1501.519</v>
       </c>
       <c r="I14">
-        <v>526.4</v>
+        <v>114.97199999999999</v>
       </c>
       <c r="J14">
-        <v>1007</v>
+        <v>142.56800000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>766.8</v>
+        <v>272.29000000000002</v>
       </c>
       <c r="O14">
-        <v>1923.8</v>
+        <v>486.99700000000001</v>
       </c>
       <c r="P14">
-        <v>1019.8</v>
+        <v>185.15100000000001</v>
       </c>
       <c r="Q14">
-        <v>-266.60000000000002</v>
+        <v>95.951999999999998</v>
       </c>
       <c r="R14">
-        <v>41580</v>
+        <v>38017</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="T14">
-        <v>959</v>
+        <v>1014.522</v>
       </c>
       <c r="U14">
-        <v>147.1</v>
+        <v>84.19</v>
       </c>
       <c r="V14">
-        <v>66.400000000000006</v>
+        <v>238.02199999999999</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-248.5</v>
+        <v>-77.331999999999994</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>12.259</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-9.5950000000000006</v>
       </c>
       <c r="AA14">
-        <v>125.4</v>
+        <v>79.828000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41671</v>
+        <v>38108</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>213.1</v>
+        <v>35.15</v>
       </c>
       <c r="D15">
-        <v>2234.9</v>
+        <v>710.33</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1323.4</v>
+        <v>253.036</v>
       </c>
       <c r="G15">
-        <v>1378.5</v>
+        <v>838.50300000000004</v>
       </c>
       <c r="H15">
-        <v>2771.9</v>
+        <v>1620.6320000000001</v>
       </c>
       <c r="I15">
-        <v>393.9</v>
+        <v>139.059</v>
       </c>
       <c r="J15">
-        <v>757</v>
+        <v>250</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-149.708</v>
       </c>
       <c r="N15">
-        <v>686.3</v>
+        <v>273.55200000000002</v>
       </c>
       <c r="O15">
-        <v>1601.2</v>
+        <v>585.84299999999996</v>
       </c>
       <c r="P15">
-        <v>769.8</v>
+        <v>285.62900000000002</v>
       </c>
       <c r="Q15">
-        <v>120.6</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="R15">
-        <v>41671</v>
+        <v>38108</v>
       </c>
       <c r="S15">
-        <v>17600</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1170.7</v>
+        <v>1034.789</v>
       </c>
       <c r="U15">
-        <v>267.7</v>
+        <v>146.69</v>
       </c>
       <c r="V15">
-        <v>427.4</v>
+        <v>47.826000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-248.8</v>
+        <v>83.117999999999995</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>10.609</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-58.314999999999998</v>
       </c>
       <c r="AA15">
-        <v>213.1</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41762</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>138.30000000000001</v>
+        <v>29.591999999999999</v>
       </c>
       <c r="D16">
-        <v>2000.3</v>
+        <v>704.23400000000004</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>696.6</v>
+        <v>250.37299999999999</v>
       </c>
       <c r="G16">
-        <v>1537</v>
+        <v>862.63400000000001</v>
       </c>
       <c r="H16">
-        <v>2958</v>
+        <v>1649.27</v>
       </c>
       <c r="I16">
-        <v>447</v>
+        <v>158.065</v>
       </c>
       <c r="J16">
-        <v>757</v>
+        <v>250</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2051,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-12.8</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>724.5</v>
+        <v>272.82100000000003</v>
       </c>
       <c r="O16">
-        <v>1640.2</v>
+        <v>590.73800000000006</v>
       </c>
       <c r="P16">
-        <v>757</v>
+        <v>284.74200000000002</v>
       </c>
       <c r="Q16">
-        <v>119.4</v>
+        <v>-41.866999999999997</v>
       </c>
       <c r="R16">
-        <v>41762</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1317.8</v>
+        <v>1058.5319999999999</v>
       </c>
       <c r="U16">
-        <v>387.1</v>
+        <v>84.513000000000005</v>
       </c>
       <c r="V16">
-        <v>198.2</v>
+        <v>-18.079000000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-7.5</v>
+        <v>-6.2380000000000004</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>9.0739999999999998</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>20.504999999999999</v>
       </c>
       <c r="AA16">
-        <v>138.30000000000001</v>
+        <v>29.591999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41853</v>
+        <v>38290</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>121.4</v>
+        <v>31.853999999999999</v>
       </c>
       <c r="D17">
-        <v>2031.1</v>
+        <v>723.96699999999998</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>694.1</v>
+        <v>258.399</v>
       </c>
       <c r="G17">
-        <v>1663.2</v>
+        <v>918.41200000000003</v>
       </c>
       <c r="H17">
-        <v>3146.7</v>
+        <v>1712.604</v>
       </c>
       <c r="I17">
-        <v>524.20000000000005</v>
+        <v>173.85599999999999</v>
       </c>
       <c r="J17">
-        <v>757</v>
+        <v>250</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>783</v>
+        <v>307.65699999999998</v>
       </c>
       <c r="O17">
-        <v>1698.6</v>
+        <v>636.23900000000003</v>
       </c>
       <c r="P17">
-        <v>757</v>
+        <v>269</v>
       </c>
       <c r="Q17">
-        <v>80.599999999999994</v>
+        <v>28.331</v>
       </c>
       <c r="R17">
-        <v>41853</v>
+        <v>38290</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1448.1</v>
+        <v>1076.365</v>
       </c>
       <c r="U17">
-        <v>467.7</v>
+        <v>87.843999999999994</v>
       </c>
       <c r="V17">
-        <v>167.1</v>
+        <v>-10.19</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1.6</v>
+        <v>-17.404</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>112.30500000000001</v>
       </c>
       <c r="AA17">
-        <v>121.5</v>
+        <v>31.853999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41944</v>
+        <v>38381</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>133</v>
+        <v>83.653999999999996</v>
       </c>
       <c r="D18">
-        <v>2095.1999999999998</v>
+        <v>987.47799999999995</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>725.3</v>
+        <v>552.34799999999996</v>
       </c>
       <c r="G18">
-        <v>1796.1</v>
+        <v>969.88699999999994</v>
       </c>
       <c r="H18">
-        <v>3367.7</v>
+        <v>1792.672</v>
       </c>
       <c r="I18">
-        <v>545</v>
+        <v>124.19499999999999</v>
       </c>
       <c r="J18">
-        <v>757</v>
+        <v>250</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>866.5</v>
+        <v>294.35500000000002</v>
       </c>
       <c r="O18">
-        <v>1782.6</v>
+        <v>628.46</v>
       </c>
       <c r="P18">
-        <v>757</v>
+        <v>281.74599999999998</v>
       </c>
       <c r="Q18">
-        <v>-60.1</v>
+        <v>18.687999999999999</v>
       </c>
       <c r="R18">
-        <v>41944</v>
+        <v>38381</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>11040</v>
       </c>
       <c r="T18">
-        <v>1585.1</v>
+        <v>1164.212</v>
       </c>
       <c r="U18">
-        <v>407.6</v>
+        <v>106.532</v>
       </c>
       <c r="V18">
-        <v>23.2</v>
+        <v>256.93200000000002</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1.1000000000000001</v>
+        <v>1.784</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-201.27500000000001</v>
       </c>
       <c r="AA18">
-        <v>133</v>
+        <v>83.653999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42035</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>206.5</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>2475.6</v>
+        <v>749.1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1456.4</v>
+        <v>254.3</v>
       </c>
       <c r="G19">
-        <v>1994.6</v>
+        <v>853.96600000000001</v>
       </c>
       <c r="H19">
-        <v>3492.7</v>
+        <v>1694.5830000000001</v>
       </c>
       <c r="I19">
-        <v>433.6</v>
+        <v>137.82300000000001</v>
       </c>
       <c r="J19">
-        <v>682.7</v>
+        <v>250</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="N19">
-        <v>861.6</v>
+        <v>290.62299999999999</v>
       </c>
       <c r="O19">
-        <v>1707.7</v>
+        <v>625.88800000000003</v>
       </c>
       <c r="P19">
-        <v>682.7</v>
+        <v>269</v>
       </c>
       <c r="Q19">
-        <v>456.5</v>
+        <v>-41</v>
       </c>
       <c r="R19">
-        <v>42035</v>
+        <v>38472</v>
       </c>
       <c r="S19">
-        <v>18100</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1785</v>
+        <v>1068.6949999999999</v>
       </c>
       <c r="U19">
-        <v>864.1</v>
+        <v>65.534999999999997</v>
       </c>
       <c r="V19">
-        <v>538.29999999999995</v>
+        <v>31.2</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-9.8000000000000007</v>
+        <v>-126.8</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>106.6</v>
       </c>
       <c r="AA19">
-        <v>206.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42126</v>
+        <v>38563</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>69.5</v>
+        <v>27.3</v>
       </c>
       <c r="D20">
-        <v>2176.6999999999998</v>
+        <v>769</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>748.9</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="G20">
-        <v>9335.6</v>
+        <v>829.202</v>
       </c>
       <c r="H20">
-        <v>10869.2</v>
+        <v>1679.8119999999999</v>
       </c>
       <c r="I20">
-        <v>515.6</v>
+        <v>120.374</v>
       </c>
       <c r="J20">
-        <v>7819.7</v>
+        <v>250</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1015.2</v>
+        <v>247.80500000000001</v>
       </c>
       <c r="O20">
-        <v>8998.4</v>
+        <v>582.61699999999996</v>
       </c>
       <c r="P20">
-        <v>7819.7</v>
+        <v>269</v>
       </c>
       <c r="Q20">
-        <v>6.3</v>
+        <v>-51</v>
       </c>
       <c r="R20">
-        <v>42126</v>
+        <v>38563</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1870.8</v>
+        <v>1097.1949999999999</v>
       </c>
       <c r="U20">
-        <v>870.4</v>
+        <v>14.532999999999999</v>
       </c>
       <c r="V20">
-        <v>150.4</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>7166.6</v>
+        <v>-1.5</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-46.3</v>
       </c>
       <c r="AA20">
-        <v>69.5</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42217</v>
+        <v>38654</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-98</v>
+        <v>31.1</v>
       </c>
       <c r="D21">
-        <v>3011.2</v>
+        <v>796.8</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>915.2</v>
+        <v>276.3</v>
       </c>
       <c r="G21">
-        <v>4524.7</v>
+        <v>916.34500000000003</v>
       </c>
       <c r="H21">
-        <v>16565.099999999999</v>
+        <v>1769.171</v>
       </c>
       <c r="I21">
-        <v>1152.5</v>
+        <v>211.43299999999999</v>
       </c>
       <c r="J21">
-        <v>8265.5</v>
+        <v>250</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2073.3000000000002</v>
+        <v>354.03199999999998</v>
       </c>
       <c r="O21">
-        <v>12518.1</v>
+        <v>688.38599999999997</v>
       </c>
       <c r="P21">
-        <v>8348.5</v>
+        <v>269</v>
       </c>
       <c r="Q21">
-        <v>432.1</v>
+        <v>80.7</v>
       </c>
       <c r="R21">
-        <v>42217</v>
+        <v>38654</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4047</v>
+        <v>1080.7850000000001</v>
       </c>
       <c r="U21">
-        <v>1302.5</v>
+        <v>95.197000000000003</v>
       </c>
       <c r="V21">
-        <v>-174.8</v>
+        <v>55</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1.9</v>
+        <v>-50.3</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>116.4</v>
       </c>
       <c r="AA21">
-        <v>-98</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42308</v>
+        <v>38745</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>81.900000000000006</v>
+        <v>86.5</v>
       </c>
       <c r="D22">
-        <v>4945.2</v>
+        <v>1079</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1438.4</v>
+        <v>606.9</v>
       </c>
       <c r="G22">
-        <v>4628</v>
+        <v>943.7</v>
       </c>
       <c r="H22">
-        <v>16699</v>
+        <v>1798.4</v>
       </c>
       <c r="I22">
-        <v>1259.3</v>
+        <v>135.6</v>
       </c>
       <c r="J22">
-        <v>8248</v>
+        <v>250</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2161.1999999999998</v>
+        <v>295.5</v>
       </c>
       <c r="O22">
-        <v>12556.8</v>
+        <v>626.1</v>
       </c>
       <c r="P22">
-        <v>8343.5</v>
+        <v>269</v>
       </c>
       <c r="Q22">
-        <v>-195.6</v>
+        <v>-29.4</v>
       </c>
       <c r="R22">
-        <v>42308</v>
+        <v>38745</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="T22">
-        <v>4142.2</v>
+        <v>1172.3</v>
       </c>
       <c r="U22">
-        <v>1106.9000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="V22">
-        <v>-4.5999999999999996</v>
+        <v>241.1</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-19.600000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-239.4</v>
       </c>
       <c r="AA22">
-        <v>81.900000000000006</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42399</v>
+        <v>38836</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>229</v>
+        <v>32.9</v>
       </c>
       <c r="D23">
-        <v>5365.3</v>
+        <v>856.5</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2672.4</v>
+        <v>286.10000000000002</v>
       </c>
       <c r="G23">
-        <v>3935.9</v>
+        <v>946.2</v>
       </c>
       <c r="H23">
-        <v>15901.2</v>
+        <v>1837.8</v>
       </c>
       <c r="I23">
-        <v>1251.9000000000001</v>
+        <v>187.3</v>
       </c>
       <c r="J23">
-        <v>7238.4</v>
+        <v>250</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N23">
-        <v>2095.4</v>
+        <v>344.5</v>
       </c>
       <c r="O23">
-        <v>11494.3</v>
+        <v>670.4</v>
       </c>
       <c r="P23">
-        <v>7346.4</v>
+        <v>269</v>
       </c>
       <c r="Q23">
-        <v>-370.8</v>
+        <v>-1.6</v>
       </c>
       <c r="R23">
-        <v>42399</v>
+        <v>38836</v>
       </c>
       <c r="S23">
-        <v>55300</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>4406.8999999999996</v>
+        <v>1167.4000000000001</v>
       </c>
       <c r="U23">
-        <v>736.1</v>
+        <v>64.2</v>
       </c>
       <c r="V23">
-        <v>831.5</v>
+        <v>77.5</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-1100.0999999999999</v>
+        <v>-36.5</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>50.8</v>
       </c>
       <c r="AA23">
-        <v>229</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42490</v>
+        <v>38927</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>232.7</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>5085.8</v>
+        <v>883.6</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1560.9</v>
+        <v>293.3</v>
       </c>
       <c r="G24">
-        <v>4172.1000000000004</v>
+        <v>874.9</v>
       </c>
       <c r="H24">
-        <v>16060.9</v>
+        <v>1775.3</v>
       </c>
       <c r="I24">
-        <v>1260.3</v>
+        <v>211.8</v>
       </c>
       <c r="J24">
-        <v>7209.8</v>
+        <v>250</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,81 +2715,81 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-20.8</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2049.1</v>
+        <v>340.9</v>
       </c>
       <c r="O24">
-        <v>11391.3</v>
+        <v>661.5</v>
       </c>
       <c r="P24">
-        <v>7330.3</v>
+        <v>268.8</v>
       </c>
       <c r="Q24">
-        <v>193.6</v>
+        <v>-15.2</v>
       </c>
       <c r="R24">
-        <v>42490</v>
+        <v>38927</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4669.6000000000004</v>
+        <v>1113.8</v>
       </c>
       <c r="U24">
-        <v>929.7</v>
+        <v>49</v>
       </c>
       <c r="V24">
-        <v>311</v>
+        <v>27.9</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-24.8</v>
+        <v>-84.4</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="AA24">
-        <v>232.7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42581</v>
+        <v>39018</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>170.1</v>
+        <v>32.5</v>
       </c>
       <c r="D25">
-        <v>4996.3</v>
+        <v>910.4</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1512.4</v>
+        <v>307.5</v>
       </c>
       <c r="G25">
-        <v>4449.3999999999996</v>
+        <v>937.3</v>
       </c>
       <c r="H25">
-        <v>16329.4</v>
+        <v>1851</v>
       </c>
       <c r="I25">
-        <v>1351.5</v>
+        <v>230</v>
       </c>
       <c r="J25">
-        <v>7155.7</v>
+        <v>250</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2180</v>
+        <v>372.8</v>
       </c>
       <c r="O25">
-        <v>11472.5</v>
+        <v>692.4</v>
       </c>
       <c r="P25">
-        <v>7301.2</v>
+        <v>268.8</v>
       </c>
       <c r="Q25">
-        <v>163.5</v>
+        <v>9.1</v>
       </c>
       <c r="R25">
-        <v>42581</v>
+        <v>39018</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4856.8999999999996</v>
+        <v>1158.5999999999999</v>
       </c>
       <c r="U25">
-        <v>1093.2</v>
+        <v>58.1</v>
       </c>
       <c r="V25">
-        <v>369.3</v>
+        <v>-14.7</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-27.1</v>
+        <v>8</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>70.7</v>
       </c>
       <c r="AA25">
-        <v>170.2</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42672</v>
+        <v>39116</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>171.6</v>
+        <v>97.6</v>
       </c>
       <c r="D26">
-        <v>5001.6000000000004</v>
+        <v>1318.9</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1520.5</v>
+        <v>470.3</v>
       </c>
       <c r="G26">
-        <v>4342.3999999999996</v>
+        <v>967.9</v>
       </c>
       <c r="H26">
-        <v>16195</v>
+        <v>1882.2</v>
       </c>
       <c r="I26">
-        <v>1266.4000000000001</v>
+        <v>198.1</v>
       </c>
       <c r="J26">
-        <v>6938</v>
+        <v>250</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2134.1999999999998</v>
+        <v>392.2</v>
       </c>
       <c r="O26">
-        <v>11147.3</v>
+        <v>714.5</v>
       </c>
       <c r="P26">
-        <v>7083.8</v>
+        <v>268.8</v>
       </c>
       <c r="Q26">
-        <v>-359.4</v>
+        <v>26.9</v>
       </c>
       <c r="R26">
-        <v>42672</v>
+        <v>39116</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="T26">
-        <v>5047.7</v>
+        <v>1167.7</v>
       </c>
       <c r="U26">
-        <v>733.8</v>
+        <v>85</v>
       </c>
       <c r="V26">
-        <v>-25</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-238.1</v>
+        <v>-90</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="AA26">
-        <v>171.6</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42763</v>
+        <v>39207</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>321.8</v>
+        <v>38.1</v>
       </c>
       <c r="D27">
-        <v>5635.5</v>
+        <v>975</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3090.2</v>
+        <v>325.3</v>
       </c>
       <c r="G27">
-        <v>3938</v>
+        <v>838.2</v>
       </c>
       <c r="H27">
-        <v>15701.6</v>
+        <v>1762.9</v>
       </c>
       <c r="I27">
-        <v>1119.5999999999999</v>
+        <v>186.7</v>
       </c>
       <c r="J27">
-        <v>6169.7</v>
+        <v>250</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N27">
-        <v>2105.9</v>
+        <v>325.5</v>
       </c>
       <c r="O27">
-        <v>10312.1</v>
+        <v>665</v>
       </c>
       <c r="P27">
-        <v>6321.8</v>
+        <v>268.8</v>
       </c>
       <c r="Q27">
-        <v>132.6</v>
+        <v>-25.2</v>
       </c>
       <c r="R27">
-        <v>42763</v>
+        <v>39207</v>
       </c>
       <c r="S27">
-        <v>55300</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>5389.5</v>
+        <v>1097.9000000000001</v>
       </c>
       <c r="U27">
-        <v>866.4</v>
+        <v>59.8</v>
       </c>
       <c r="V27">
-        <v>1018</v>
+        <v>30.8</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-770.5</v>
+        <v>-108.9</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AA27">
-        <v>321.8</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42854</v>
+        <v>39298</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>200.5</v>
+        <v>32.6</v>
       </c>
       <c r="D28">
-        <v>5287.1</v>
+        <v>971.2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1627.1</v>
+        <v>326.60000000000002</v>
       </c>
       <c r="G28">
-        <v>4278.1000000000004</v>
+        <v>892.8</v>
       </c>
       <c r="H28">
-        <v>15994.7</v>
+        <v>1837</v>
       </c>
       <c r="I28">
-        <v>1223.9000000000001</v>
+        <v>230.7</v>
       </c>
       <c r="J28">
-        <v>6131.7</v>
+        <v>250</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,81 +3047,81 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>2240.6</v>
+        <v>388.4</v>
       </c>
       <c r="O28">
-        <v>10385.700000000001</v>
+        <v>733.7</v>
       </c>
       <c r="P28">
-        <v>6297.6</v>
+        <v>268.5</v>
       </c>
       <c r="Q28">
-        <v>288.5</v>
+        <v>-16.3</v>
       </c>
       <c r="R28">
-        <v>42854</v>
+        <v>39298</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5609</v>
+        <v>1103.3</v>
       </c>
       <c r="U28">
-        <v>1154.9000000000001</v>
+        <v>43.5</v>
       </c>
       <c r="V28">
-        <v>430.7</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-33.6</v>
+        <v>-11.8</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-15.2</v>
       </c>
       <c r="AA28">
-        <v>200.5</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42945</v>
+        <v>39389</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>233.8</v>
+        <v>35.9</v>
       </c>
       <c r="D29">
-        <v>5281.2</v>
+        <v>997.8</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1627.8</v>
+        <v>343.9</v>
       </c>
       <c r="G29">
-        <v>3815.2</v>
+        <v>894.1</v>
       </c>
       <c r="H29">
-        <v>15532.3</v>
+        <v>1867.9</v>
       </c>
       <c r="I29">
-        <v>1196.3</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="J29">
-        <v>5595</v>
+        <v>335.2</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2084.6999999999998</v>
+        <v>434.2</v>
       </c>
       <c r="O29">
-        <v>9672.1</v>
+        <v>883.1</v>
       </c>
       <c r="P29">
-        <v>5760.9</v>
+        <v>353.7</v>
       </c>
       <c r="Q29">
-        <v>-461.6</v>
+        <v>-13.5</v>
       </c>
       <c r="R29">
-        <v>42945</v>
+        <v>39389</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5860.2</v>
+        <v>984.8</v>
       </c>
       <c r="U29">
-        <v>693.3</v>
+        <v>30</v>
       </c>
       <c r="V29">
-        <v>244.5</v>
+        <v>-13.7</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-545.5</v>
+        <v>-77.900000000000006</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AA29">
-        <v>233.8</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43036</v>
+        <v>39480</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>239.9</v>
+        <v>94.7</v>
       </c>
       <c r="D30">
-        <v>5316.6</v>
+        <v>1298.5999999999999</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1666</v>
+        <v>465.3</v>
       </c>
       <c r="G30">
-        <v>3972.6</v>
+        <v>788.8</v>
       </c>
       <c r="H30">
-        <v>15730.2</v>
+        <v>1787.7</v>
       </c>
       <c r="I30">
-        <v>1181.3</v>
+        <v>200.4</v>
       </c>
       <c r="J30">
-        <v>5557</v>
+        <v>250</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2039.9</v>
+        <v>405.9</v>
       </c>
       <c r="O30">
-        <v>9613.7000000000007</v>
+        <v>799.3</v>
       </c>
       <c r="P30">
-        <v>5722.9</v>
+        <v>268.5</v>
       </c>
       <c r="Q30">
-        <v>-293.2</v>
+        <v>10.6</v>
       </c>
       <c r="R30">
-        <v>43036</v>
+        <v>39480</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="T30">
-        <v>6116.5</v>
+        <v>988.4</v>
       </c>
       <c r="U30">
-        <v>400.1</v>
+        <v>40.6</v>
       </c>
       <c r="V30">
-        <v>-82.6</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-34.5</v>
+        <v>-190.4</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>4</v>
+        <v>-40.5</v>
       </c>
       <c r="AA30">
-        <v>239.9</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43134</v>
+        <v>39571</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1040.0999999999999</v>
+        <v>43.6</v>
       </c>
       <c r="D31">
-        <v>6360.6</v>
+        <v>1051.3</v>
       </c>
       <c r="E31">
-        <v>90.4</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3449.7</v>
+        <v>356.5</v>
       </c>
       <c r="G31">
-        <v>4576.3</v>
+        <v>797.1</v>
       </c>
       <c r="H31">
-        <v>16332.8</v>
+        <v>1771.1</v>
       </c>
       <c r="I31">
-        <v>1174.8</v>
+        <v>204.4</v>
       </c>
       <c r="J31">
-        <v>4762.1000000000004</v>
+        <v>250</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,120 +3299,120 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2859.1</v>
+        <v>371.8</v>
       </c>
       <c r="O31">
-        <v>9150.5</v>
+        <v>733.7</v>
       </c>
       <c r="P31">
-        <v>5678</v>
+        <v>268.5</v>
       </c>
       <c r="Q31">
-        <v>697.7</v>
+        <v>43.6</v>
       </c>
       <c r="R31">
-        <v>43134</v>
+        <v>39571</v>
       </c>
       <c r="S31">
-        <v>56300</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>7182.3</v>
+        <v>1037.4000000000001</v>
       </c>
       <c r="U31">
-        <v>1097.8</v>
+        <v>84.2</v>
       </c>
       <c r="V31">
-        <v>917.6</v>
+        <v>34.5</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-37.9</v>
+        <v>1.7</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="AA31">
-        <v>1040.0999999999999</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43225</v>
+        <v>39662</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>160.5</v>
+        <v>37.6</v>
       </c>
       <c r="D32">
-        <v>5553.7</v>
+        <v>1093.0999999999999</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1699.6</v>
+        <v>363.1</v>
       </c>
       <c r="G32">
-        <v>4042</v>
+        <v>895.8</v>
       </c>
       <c r="H32">
-        <v>15827.1</v>
+        <v>1864.7</v>
       </c>
       <c r="I32">
-        <v>1181.5</v>
+        <v>272.8</v>
       </c>
       <c r="J32">
-        <v>5040.1000000000004</v>
+        <v>250</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-5432.7</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1917.2</v>
+        <v>411.9</v>
       </c>
       <c r="O32">
-        <v>8471.4</v>
+        <v>778.4</v>
       </c>
       <c r="P32">
-        <v>5040.1000000000004</v>
+        <v>268</v>
       </c>
       <c r="Q32">
-        <v>-622.6</v>
+        <v>30.4</v>
       </c>
       <c r="R32">
-        <v>43225</v>
+        <v>39662</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7355.7</v>
+        <v>1086.3</v>
       </c>
       <c r="U32">
-        <v>475.2</v>
+        <v>114.6</v>
       </c>
       <c r="V32">
-        <v>387.6</v>
+        <v>56.6</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-828.8</v>
+        <v>6.8</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>160.5</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43316</v>
+        <v>39753</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>273.89999999999998</v>
+        <v>43.1</v>
       </c>
       <c r="D33">
-        <v>5525.6</v>
+        <v>1114</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1663.9</v>
+        <v>379.4</v>
       </c>
       <c r="G33">
-        <v>4272.8</v>
+        <v>960.7</v>
       </c>
       <c r="H33">
-        <v>16103.6</v>
+        <v>1921.7</v>
       </c>
       <c r="I33">
-        <v>1241.7</v>
+        <v>238.4</v>
       </c>
       <c r="J33">
-        <v>5041.8</v>
+        <v>250</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1907.4</v>
+        <v>411.9</v>
       </c>
       <c r="O33">
-        <v>8456.1</v>
+        <v>781.6</v>
       </c>
       <c r="P33">
-        <v>5041.8</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="Q33">
-        <v>172.1</v>
+        <v>-36</v>
       </c>
       <c r="R33">
-        <v>43316</v>
+        <v>39753</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7647.5</v>
+        <v>1140.0999999999999</v>
       </c>
       <c r="U33">
-        <v>647.29999999999995</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="V33">
-        <v>381.2</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>5.0999999999999996</v>
+        <v>7.8</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>273.89999999999998</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43407</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>281.8</v>
+        <v>105.2</v>
       </c>
       <c r="D34">
-        <v>5538.8</v>
+        <v>1386.5</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1671.9</v>
+        <v>816.8</v>
       </c>
       <c r="G34">
-        <v>4749.5</v>
+        <v>1073.2</v>
       </c>
       <c r="H34">
-        <v>16649.3</v>
+        <v>2035.7</v>
       </c>
       <c r="I34">
-        <v>1365.1</v>
+        <v>192.9</v>
       </c>
       <c r="J34">
-        <v>5043.8</v>
+        <v>250</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2135.6999999999998</v>
+        <v>409.9</v>
       </c>
       <c r="O34">
-        <v>8706.2000000000007</v>
+        <v>782.5</v>
       </c>
       <c r="P34">
-        <v>5043.8</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="Q34">
-        <v>61</v>
+        <v>285.8</v>
       </c>
       <c r="R34">
-        <v>43407</v>
+        <v>39844</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>12560</v>
       </c>
       <c r="T34">
-        <v>7943.1</v>
+        <v>1253.2</v>
       </c>
       <c r="U34">
-        <v>708.3</v>
+        <v>364.4</v>
       </c>
       <c r="V34">
-        <v>282.10000000000002</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3587,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>281.8</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43498</v>
+        <v>39935</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-2307</v>
+        <v>60.4</v>
       </c>
       <c r="D35">
-        <v>6205.2</v>
+        <v>1201.0999999999999</v>
       </c>
       <c r="E35">
-        <v>100.9</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1912.1</v>
+        <v>415.4</v>
       </c>
       <c r="G35">
-        <v>4293.3</v>
+        <v>1109.2</v>
       </c>
       <c r="H35">
-        <v>13501.2</v>
+        <v>2073.6999999999998</v>
       </c>
       <c r="I35">
-        <v>1416.4</v>
+        <v>208.6</v>
       </c>
       <c r="J35">
-        <v>4265.3</v>
+        <v>250</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,37 +3631,37 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2095.6999999999998</v>
+        <v>414.4</v>
       </c>
       <c r="O35">
-        <v>7858.3</v>
+        <v>792.2</v>
       </c>
       <c r="P35">
-        <v>4265.3</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="Q35">
-        <v>-261.60000000000002</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="R35">
-        <v>43498</v>
+        <v>39935</v>
       </c>
       <c r="S35">
-        <v>57200</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>5642.9</v>
+        <v>1281.5</v>
       </c>
       <c r="U35">
-        <v>422.1</v>
+        <v>355.2</v>
       </c>
       <c r="V35">
-        <v>715.1</v>
+        <v>54.6</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-779.3</v>
+        <v>-29.6</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,39 +3670,39 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>-2307</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43589</v>
+        <v>40026</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>267.89999999999998</v>
+        <v>56.9</v>
       </c>
       <c r="D36">
-        <v>5808.7</v>
+        <v>1222.8</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1727.2</v>
+        <v>421.8</v>
       </c>
       <c r="G36">
-        <v>4246.1000000000004</v>
+        <v>1167</v>
       </c>
       <c r="H36">
-        <v>19354.3</v>
+        <v>2135.1</v>
       </c>
       <c r="I36">
-        <v>1186.5</v>
+        <v>273.8</v>
       </c>
       <c r="J36">
-        <v>3516.9</v>
+        <v>254.4</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3979.3</v>
+        <v>441.9</v>
       </c>
       <c r="O36">
-        <v>13598.4</v>
+        <v>824.7</v>
       </c>
       <c r="P36">
-        <v>10332.299999999999</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="Q36">
-        <v>303.8</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>43589</v>
+        <v>40026</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5755.9</v>
+        <v>1310.4000000000001</v>
       </c>
       <c r="U36">
-        <v>725.8</v>
+        <v>358.2</v>
       </c>
       <c r="V36">
-        <v>614.1</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-117.5</v>
+        <v>-38.5</v>
       </c>
       <c r="Y36">
-        <v>4849.5</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>267.89999999999998</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43680</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>180.3</v>
+        <v>68.2</v>
       </c>
       <c r="D37">
-        <v>5740.6</v>
+        <v>1248.7</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1648.5</v>
+        <v>441.2</v>
       </c>
       <c r="G37">
-        <v>4340.8</v>
+        <v>1220.7</v>
       </c>
       <c r="H37">
-        <v>19493.8</v>
+        <v>2180.5</v>
       </c>
       <c r="I37">
-        <v>1455.4</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="J37">
-        <v>3518.6</v>
+        <v>254.4</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4094</v>
+        <v>468.6</v>
       </c>
       <c r="O37">
-        <v>13628.1</v>
+        <v>855.6</v>
       </c>
       <c r="P37">
-        <v>10251</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="Q37">
-        <v>-102.2</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="R37">
-        <v>43680</v>
+        <v>40117</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5865.7</v>
+        <v>1324.9</v>
       </c>
       <c r="U37">
-        <v>623.4</v>
+        <v>342.1</v>
       </c>
       <c r="V37">
-        <v>229.9</v>
+        <v>88.6</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-36.5</v>
+        <v>-58.9</v>
       </c>
       <c r="Y37">
-        <v>4767.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>180.3</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43771</v>
+        <v>40208</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>255.8</v>
+        <v>135</v>
       </c>
       <c r="D38">
-        <v>5746.2</v>
+        <v>1558.6</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1704.5</v>
+        <v>929.3</v>
       </c>
       <c r="G38">
-        <v>4572.3</v>
+        <v>1305.5999999999999</v>
       </c>
       <c r="H38">
-        <v>19742.099999999999</v>
+        <v>2289.6999999999998</v>
       </c>
       <c r="I38">
-        <v>1473.1</v>
+        <v>219.9</v>
       </c>
       <c r="J38">
-        <v>3520.2</v>
+        <v>250</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4179.7</v>
+        <v>475.9</v>
       </c>
       <c r="O38">
-        <v>13620.8</v>
+        <v>860.5</v>
       </c>
       <c r="P38">
-        <v>10108.799999999999</v>
+        <v>267.5</v>
       </c>
       <c r="Q38">
-        <v>-168</v>
+        <v>229.5</v>
       </c>
       <c r="R38">
-        <v>43771</v>
+        <v>40208</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>12480</v>
       </c>
       <c r="T38">
-        <v>6121.3</v>
+        <v>1429.2</v>
       </c>
       <c r="U38">
-        <v>433.7</v>
+        <v>571.6</v>
       </c>
       <c r="V38">
-        <v>170.5</v>
+        <v>358.4</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-58</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="Y38">
-        <v>4636</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-27.8</v>
       </c>
       <c r="AA38">
-        <v>255.8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43862</v>
+        <v>40299</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>123</v>
+        <v>63.6</v>
       </c>
       <c r="D39">
-        <v>6315.3</v>
+        <v>1352.6</v>
       </c>
       <c r="E39">
-        <v>113.3</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>3871.7</v>
+        <v>450.2</v>
       </c>
       <c r="G39">
-        <v>4269.3999999999996</v>
+        <v>1144.8</v>
       </c>
       <c r="H39">
-        <v>19574.599999999999</v>
+        <v>2142.6999999999998</v>
       </c>
       <c r="I39">
-        <v>1336.5</v>
+        <v>258.60000000000002</v>
       </c>
       <c r="J39">
-        <v>3522.2</v>
+        <v>250</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>3546.5</v>
+        <v>468.2</v>
       </c>
       <c r="O39">
-        <v>13319.8</v>
+        <v>849.7</v>
       </c>
       <c r="P39">
-        <v>10031</v>
+        <v>267.5</v>
       </c>
       <c r="Q39">
-        <v>105.7</v>
+        <v>-233</v>
       </c>
       <c r="R39">
-        <v>43862</v>
+        <v>40299</v>
       </c>
       <c r="S39">
-        <v>56900</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>6254.8</v>
+        <v>1293</v>
       </c>
       <c r="U39">
-        <v>539.20000000000005</v>
+        <v>338.6</v>
       </c>
       <c r="V39">
-        <v>855.3</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-497.8</v>
+        <v>-200.1</v>
       </c>
       <c r="Y39">
-        <v>4979.5</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-23.6</v>
       </c>
       <c r="AA39">
-        <v>123</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43953</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>247.6</v>
+        <v>78</v>
       </c>
       <c r="D40">
-        <v>6286.8</v>
+        <v>1377.9</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1794.9</v>
+        <v>483.5</v>
       </c>
       <c r="G40">
-        <v>5165.3999999999996</v>
+        <v>1261.7</v>
       </c>
       <c r="H40">
-        <v>20471.8</v>
+        <v>2257.3000000000002</v>
       </c>
       <c r="I40">
-        <v>1336.9</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="J40">
-        <v>3223.3</v>
+        <v>250</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,81 +4043,81 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>4504.2</v>
+        <v>491.9</v>
       </c>
       <c r="O40">
-        <v>13951.2</v>
+        <v>875.8</v>
       </c>
       <c r="P40">
-        <v>10423.5</v>
+        <v>266.5</v>
       </c>
       <c r="Q40">
-        <v>1216</v>
+        <v>90.7</v>
       </c>
       <c r="R40">
-        <v>43953</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>6520.6</v>
+        <v>1381.5</v>
       </c>
       <c r="U40">
-        <v>1755.1</v>
+        <v>429.3</v>
       </c>
       <c r="V40">
-        <v>959</v>
+        <v>118</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>493.6</v>
+        <v>1.8</v>
       </c>
       <c r="Y40">
-        <v>4885.2</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA40">
-        <v>247.6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44044</v>
+        <v>40481</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>261.5</v>
+        <v>93.2</v>
       </c>
       <c r="D41">
-        <v>6277.6</v>
+        <v>1426.6</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1927.6</v>
+        <v>506</v>
       </c>
       <c r="G41">
-        <v>5232.5</v>
+        <v>1366.4</v>
       </c>
       <c r="H41">
-        <v>20671</v>
+        <v>2362.1</v>
       </c>
       <c r="I41">
-        <v>1481</v>
+        <v>303.2</v>
       </c>
       <c r="J41">
-        <v>3224.3</v>
+        <v>250</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4278.8</v>
+        <v>566.5</v>
       </c>
       <c r="O41">
-        <v>13857.4</v>
+        <v>949.9</v>
       </c>
       <c r="P41">
-        <v>10290.5</v>
+        <v>266.7</v>
       </c>
       <c r="Q41">
-        <v>-4.8</v>
+        <v>-119.8</v>
       </c>
       <c r="R41">
-        <v>44044</v>
+        <v>40481</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6813.6</v>
+        <v>1412.2</v>
       </c>
       <c r="U41">
-        <v>1750.3</v>
+        <v>309.5</v>
       </c>
       <c r="V41">
-        <v>478</v>
+        <v>21</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-248.2</v>
+        <v>-52.6</v>
       </c>
       <c r="Y41">
-        <v>4981.6000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-31.5</v>
       </c>
       <c r="AA41">
-        <v>261.5</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44135</v>
+        <v>40572</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>162.5</v>
+      </c>
+      <c r="D42">
+        <v>1725.3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1057.0999999999999</v>
+      </c>
+      <c r="G42">
+        <v>1333.3</v>
+      </c>
+      <c r="H42">
+        <v>2380.5</v>
+      </c>
+      <c r="I42">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="J42">
+        <v>250</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>532.79999999999995</v>
+      </c>
+      <c r="O42">
+        <v>921.5</v>
+      </c>
+      <c r="P42">
+        <v>266.5</v>
+      </c>
+      <c r="Q42">
+        <v>1.7</v>
+      </c>
+      <c r="R42">
+        <v>40572</v>
+      </c>
+      <c r="S42">
+        <v>13060</v>
+      </c>
+      <c r="T42">
+        <v>1459</v>
+      </c>
+      <c r="U42">
+        <v>311.2</v>
+      </c>
+      <c r="V42">
+        <v>343.9</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-153.4</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-92.3</v>
+      </c>
+      <c r="AA42">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>101</v>
+      </c>
+      <c r="D43">
+        <v>1545.9</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>540.79999999999995</v>
+      </c>
+      <c r="G43">
+        <v>1325.5</v>
+      </c>
+      <c r="H43">
+        <v>2381.3000000000002</v>
+      </c>
+      <c r="I43">
+        <v>276</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>504.7</v>
+      </c>
+      <c r="O43">
+        <v>894.6</v>
+      </c>
+      <c r="P43">
+        <v>267.8</v>
+      </c>
+      <c r="Q43">
+        <v>60.1</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1486.7</v>
+      </c>
+      <c r="U43">
+        <v>371.3</v>
+      </c>
+      <c r="V43">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-75</v>
+      </c>
+      <c r="Y43">
+        <v>1.3</v>
+      </c>
+      <c r="Z43">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AA43">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40754</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>94.9</v>
+      </c>
+      <c r="D44">
+        <v>1542.4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>542.4</v>
+      </c>
+      <c r="G44">
+        <v>1408.3</v>
+      </c>
+      <c r="H44">
+        <v>2478.9</v>
+      </c>
+      <c r="I44">
+        <v>302.7</v>
+      </c>
+      <c r="J44">
+        <v>250</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>495.8</v>
+      </c>
+      <c r="O44">
+        <v>891.2</v>
+      </c>
+      <c r="P44">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>50.3</v>
+      </c>
+      <c r="R44">
+        <v>40754</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1587.7</v>
+      </c>
+      <c r="U44">
+        <v>421.6</v>
+      </c>
+      <c r="V44">
+        <v>102.9</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="Y44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z44">
+        <v>15.2</v>
+      </c>
+      <c r="AA44">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40845</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>104.5</v>
+      </c>
+      <c r="D45">
+        <v>1596.6</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>560.6</v>
+      </c>
+      <c r="G45">
+        <v>1332.5</v>
+      </c>
+      <c r="H45">
+        <v>2431.1999999999998</v>
+      </c>
+      <c r="I45">
+        <v>351.9</v>
+      </c>
+      <c r="J45">
+        <v>250</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>587.1</v>
+      </c>
+      <c r="O45">
+        <v>984.3</v>
+      </c>
+      <c r="P45">
+        <v>266.3</v>
+      </c>
+      <c r="Q45">
+        <v>-141.4</v>
+      </c>
+      <c r="R45">
+        <v>40845</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1446.9</v>
+      </c>
+      <c r="U45">
+        <v>280.2</v>
+      </c>
+      <c r="V45">
+        <v>59.5</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-248.2</v>
+      </c>
+      <c r="Y45">
+        <v>0.8</v>
+      </c>
+      <c r="Z45">
+        <v>123.8</v>
+      </c>
+      <c r="AA45">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40936</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>187.9</v>
+      </c>
+      <c r="D46">
+        <v>1945.6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1158.0999999999999</v>
+      </c>
+      <c r="G46">
+        <v>1209.4000000000001</v>
+      </c>
+      <c r="H46">
+        <v>2328.6</v>
+      </c>
+      <c r="I46">
+        <v>286.7</v>
+      </c>
+      <c r="J46">
+        <v>250</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>581</v>
+      </c>
+      <c r="O46">
+        <v>984</v>
+      </c>
+      <c r="P46">
+        <v>265.5</v>
+      </c>
+      <c r="Q46">
+        <v>8.1</v>
+      </c>
+      <c r="R46">
+        <v>40936</v>
+      </c>
+      <c r="S46">
+        <v>14170</v>
+      </c>
+      <c r="T46">
+        <v>1344.6</v>
+      </c>
+      <c r="U46">
+        <v>288.3</v>
+      </c>
+      <c r="V46">
+        <v>367.8</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-295.60000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>187.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41027</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>116.1</v>
+      </c>
+      <c r="D47">
+        <v>1723.6</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>602.70000000000005</v>
+      </c>
+      <c r="G47">
+        <v>1304.4000000000001</v>
+      </c>
+      <c r="H47">
+        <v>2451.1</v>
+      </c>
+      <c r="I47">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>816</v>
+      </c>
+      <c r="O47">
+        <v>970.5</v>
+      </c>
+      <c r="P47">
+        <v>265.7</v>
+      </c>
+      <c r="Q47">
+        <v>94</v>
+      </c>
+      <c r="R47">
+        <v>41027</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1480.6</v>
+      </c>
+      <c r="U47">
+        <v>382.3</v>
+      </c>
+      <c r="V47">
+        <v>134.5</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>25</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>119.2</v>
+      </c>
+      <c r="D48">
+        <v>1704.6</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>599.6</v>
+      </c>
+      <c r="G48">
+        <v>1321.6</v>
+      </c>
+      <c r="H48">
+        <v>2499.6999999999998</v>
+      </c>
+      <c r="I48">
+        <v>352.4</v>
+      </c>
+      <c r="J48">
+        <v>250</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>580.79999999999995</v>
+      </c>
+      <c r="O48">
+        <v>976.7</v>
+      </c>
+      <c r="P48">
+        <v>264.3</v>
+      </c>
+      <c r="Q48">
+        <v>-2.5</v>
+      </c>
+      <c r="R48">
+        <v>41118</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1523</v>
+      </c>
+      <c r="U48">
+        <v>379.8</v>
+      </c>
+      <c r="V48">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-71.3</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>155.4</v>
+      </c>
+      <c r="D49">
+        <v>1720.5</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>599.6</v>
+      </c>
+      <c r="G49">
+        <v>1408.5</v>
+      </c>
+      <c r="H49">
+        <v>2639.3</v>
+      </c>
+      <c r="I49">
+        <v>420</v>
+      </c>
+      <c r="J49">
+        <v>250</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>701</v>
+      </c>
+      <c r="O49">
+        <v>1100.4000000000001</v>
+      </c>
+      <c r="P49">
+        <v>264.3</v>
+      </c>
+      <c r="Q49">
+        <v>-157.4</v>
+      </c>
+      <c r="R49">
+        <v>41209</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1538.9</v>
+      </c>
+      <c r="U49">
+        <v>222.4</v>
+      </c>
+      <c r="V49">
+        <v>33.6</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-157.1</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>62.3</v>
+      </c>
+      <c r="AA49">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41307</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>228.6</v>
+      </c>
+      <c r="D50">
+        <v>2245.8000000000002</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1308.3</v>
+      </c>
+      <c r="G50">
+        <v>1473.5</v>
+      </c>
+      <c r="H50">
+        <v>2752</v>
+      </c>
+      <c r="I50">
+        <v>346.5</v>
+      </c>
+      <c r="J50">
+        <v>257</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>676.2</v>
+      </c>
+      <c r="O50">
+        <v>1084.7</v>
+      </c>
+      <c r="P50">
+        <v>271.3</v>
+      </c>
+      <c r="Q50">
+        <v>177.5</v>
+      </c>
+      <c r="R50">
+        <v>41307</v>
+      </c>
+      <c r="S50">
+        <v>15380</v>
+      </c>
+      <c r="T50">
+        <v>1667.3</v>
+      </c>
+      <c r="U50">
+        <v>399.9</v>
+      </c>
+      <c r="V50">
+        <v>364.3</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-100</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>228.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>133.5</v>
+      </c>
+      <c r="D51">
+        <v>1865.8</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>656</v>
+      </c>
+      <c r="G51">
+        <v>1489.8</v>
+      </c>
+      <c r="H51">
+        <v>2811.8</v>
+      </c>
+      <c r="I51">
+        <v>392.6</v>
+      </c>
+      <c r="J51">
+        <v>257</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>663</v>
+      </c>
+      <c r="O51">
+        <v>1072.0999999999999</v>
+      </c>
+      <c r="P51">
+        <v>271.3</v>
+      </c>
+      <c r="Q51">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41398</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1739.7</v>
+      </c>
+      <c r="U51">
+        <v>383.3</v>
+      </c>
+      <c r="V51">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-57.4</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41489</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>124.7</v>
+      </c>
+      <c r="D52">
+        <v>1854.9</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>648.70000000000005</v>
+      </c>
+      <c r="G52">
+        <v>1533.2</v>
+      </c>
+      <c r="H52">
+        <v>2908.3</v>
+      </c>
+      <c r="I52">
+        <v>418.8</v>
+      </c>
+      <c r="J52">
+        <v>257</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>671.8</v>
+      </c>
+      <c r="O52">
+        <v>1082.4000000000001</v>
+      </c>
+      <c r="P52">
+        <v>269.8</v>
+      </c>
+      <c r="Q52">
+        <v>30.4</v>
+      </c>
+      <c r="R52">
+        <v>41489</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1825.9</v>
+      </c>
+      <c r="U52">
+        <v>413.7</v>
+      </c>
+      <c r="V52">
+        <v>171</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-43.1</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41580</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>125.4</v>
+      </c>
+      <c r="D53">
+        <v>1884.7</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>659.9</v>
+      </c>
+      <c r="G53">
+        <v>1487.8</v>
+      </c>
+      <c r="H53">
+        <v>2882.8</v>
+      </c>
+      <c r="I53">
+        <v>526.4</v>
+      </c>
+      <c r="J53">
+        <v>1007</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>766.8</v>
+      </c>
+      <c r="O53">
+        <v>1923.8</v>
+      </c>
+      <c r="P53">
+        <v>1019.8</v>
+      </c>
+      <c r="Q53">
+        <v>-266.60000000000002</v>
+      </c>
+      <c r="R53">
+        <v>41580</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>959</v>
+      </c>
+      <c r="U53">
+        <v>147.1</v>
+      </c>
+      <c r="V53">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-248.5</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>213.1</v>
+      </c>
+      <c r="D54">
+        <v>2234.9</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1323.4</v>
+      </c>
+      <c r="G54">
+        <v>1378.5</v>
+      </c>
+      <c r="H54">
+        <v>2771.9</v>
+      </c>
+      <c r="I54">
+        <v>393.9</v>
+      </c>
+      <c r="J54">
+        <v>757</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>686.3</v>
+      </c>
+      <c r="O54">
+        <v>1601.2</v>
+      </c>
+      <c r="P54">
+        <v>769.8</v>
+      </c>
+      <c r="Q54">
+        <v>120.6</v>
+      </c>
+      <c r="R54">
+        <v>41671</v>
+      </c>
+      <c r="S54">
+        <v>17600</v>
+      </c>
+      <c r="T54">
+        <v>1170.7</v>
+      </c>
+      <c r="U54">
+        <v>267.7</v>
+      </c>
+      <c r="V54">
+        <v>427.4</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-248.8</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>213.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41762</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="D55">
+        <v>2000.3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>696.6</v>
+      </c>
+      <c r="G55">
+        <v>1537</v>
+      </c>
+      <c r="H55">
+        <v>2958</v>
+      </c>
+      <c r="I55">
+        <v>447</v>
+      </c>
+      <c r="J55">
+        <v>757</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-12.8</v>
+      </c>
+      <c r="N55">
+        <v>724.5</v>
+      </c>
+      <c r="O55">
+        <v>1640.2</v>
+      </c>
+      <c r="P55">
+        <v>757</v>
+      </c>
+      <c r="Q55">
+        <v>119.4</v>
+      </c>
+      <c r="R55">
+        <v>41762</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1317.8</v>
+      </c>
+      <c r="U55">
+        <v>387.1</v>
+      </c>
+      <c r="V55">
+        <v>198.2</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-7.5</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41853</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>121.4</v>
+      </c>
+      <c r="D56">
+        <v>2031.1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>694.1</v>
+      </c>
+      <c r="G56">
+        <v>1663.2</v>
+      </c>
+      <c r="H56">
+        <v>3146.7</v>
+      </c>
+      <c r="I56">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="J56">
+        <v>757</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>783</v>
+      </c>
+      <c r="O56">
+        <v>1698.6</v>
+      </c>
+      <c r="P56">
+        <v>757</v>
+      </c>
+      <c r="Q56">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="R56">
+        <v>41853</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1448.1</v>
+      </c>
+      <c r="U56">
+        <v>467.7</v>
+      </c>
+      <c r="V56">
+        <v>167.1</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1.6</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>133</v>
+      </c>
+      <c r="D57">
+        <v>2095.1999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>725.3</v>
+      </c>
+      <c r="G57">
+        <v>1796.1</v>
+      </c>
+      <c r="H57">
+        <v>3367.7</v>
+      </c>
+      <c r="I57">
+        <v>545</v>
+      </c>
+      <c r="J57">
+        <v>757</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>866.5</v>
+      </c>
+      <c r="O57">
+        <v>1782.6</v>
+      </c>
+      <c r="P57">
+        <v>757</v>
+      </c>
+      <c r="Q57">
+        <v>-60.1</v>
+      </c>
+      <c r="R57">
+        <v>41944</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1585.1</v>
+      </c>
+      <c r="U57">
+        <v>407.6</v>
+      </c>
+      <c r="V57">
+        <v>23.2</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>206.5</v>
+      </c>
+      <c r="D58">
+        <v>2475.6</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1456.4</v>
+      </c>
+      <c r="G58">
+        <v>1994.6</v>
+      </c>
+      <c r="H58">
+        <v>3492.7</v>
+      </c>
+      <c r="I58">
+        <v>433.6</v>
+      </c>
+      <c r="J58">
+        <v>682.7</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>861.6</v>
+      </c>
+      <c r="O58">
+        <v>1707.7</v>
+      </c>
+      <c r="P58">
+        <v>682.7</v>
+      </c>
+      <c r="Q58">
+        <v>456.5</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>18100</v>
+      </c>
+      <c r="T58">
+        <v>1785</v>
+      </c>
+      <c r="U58">
+        <v>864.1</v>
+      </c>
+      <c r="V58">
+        <v>538.29999999999995</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>69.5</v>
+      </c>
+      <c r="D59">
+        <v>2176.6999999999998</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>748.9</v>
+      </c>
+      <c r="G59">
+        <v>9335.6</v>
+      </c>
+      <c r="H59">
+        <v>10869.2</v>
+      </c>
+      <c r="I59">
+        <v>515.6</v>
+      </c>
+      <c r="J59">
+        <v>7819.7</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1015.2</v>
+      </c>
+      <c r="O59">
+        <v>8998.4</v>
+      </c>
+      <c r="P59">
+        <v>7819.7</v>
+      </c>
+      <c r="Q59">
+        <v>6.3</v>
+      </c>
+      <c r="R59">
+        <v>42126</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1870.8</v>
+      </c>
+      <c r="U59">
+        <v>870.4</v>
+      </c>
+      <c r="V59">
+        <v>150.4</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>7166.6</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>-98</v>
+      </c>
+      <c r="D60">
+        <v>3011.2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>915.2</v>
+      </c>
+      <c r="G60">
+        <v>4524.7</v>
+      </c>
+      <c r="H60">
+        <v>16565.099999999999</v>
+      </c>
+      <c r="I60">
+        <v>1152.5</v>
+      </c>
+      <c r="J60">
+        <v>8265.5</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2073.3000000000002</v>
+      </c>
+      <c r="O60">
+        <v>12518.1</v>
+      </c>
+      <c r="P60">
+        <v>8348.5</v>
+      </c>
+      <c r="Q60">
+        <v>432.1</v>
+      </c>
+      <c r="R60">
+        <v>42217</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4047</v>
+      </c>
+      <c r="U60">
+        <v>1302.5</v>
+      </c>
+      <c r="V60">
+        <v>-174.8</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1.9</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D61">
+        <v>4945.2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1438.4</v>
+      </c>
+      <c r="G61">
+        <v>4628</v>
+      </c>
+      <c r="H61">
+        <v>16699</v>
+      </c>
+      <c r="I61">
+        <v>1259.3</v>
+      </c>
+      <c r="J61">
+        <v>8248</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2161.1999999999998</v>
+      </c>
+      <c r="O61">
+        <v>12556.8</v>
+      </c>
+      <c r="P61">
+        <v>8343.5</v>
+      </c>
+      <c r="Q61">
+        <v>-195.6</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4142.2</v>
+      </c>
+      <c r="U61">
+        <v>1106.9000000000001</v>
+      </c>
+      <c r="V61">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>229</v>
+      </c>
+      <c r="D62">
+        <v>5365.3</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2672.4</v>
+      </c>
+      <c r="G62">
+        <v>3935.9</v>
+      </c>
+      <c r="H62">
+        <v>15901.2</v>
+      </c>
+      <c r="I62">
+        <v>1251.9000000000001</v>
+      </c>
+      <c r="J62">
+        <v>7238.4</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2095.4</v>
+      </c>
+      <c r="O62">
+        <v>11494.3</v>
+      </c>
+      <c r="P62">
+        <v>7346.4</v>
+      </c>
+      <c r="Q62">
+        <v>-370.8</v>
+      </c>
+      <c r="R62">
+        <v>42399</v>
+      </c>
+      <c r="S62">
+        <v>55300</v>
+      </c>
+      <c r="T62">
+        <v>4406.8999999999996</v>
+      </c>
+      <c r="U62">
+        <v>736.1</v>
+      </c>
+      <c r="V62">
+        <v>831.5</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-1100.0999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>232.7</v>
+      </c>
+      <c r="D63">
+        <v>5085.8</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1560.9</v>
+      </c>
+      <c r="G63">
+        <v>4172.1000000000004</v>
+      </c>
+      <c r="H63">
+        <v>16060.9</v>
+      </c>
+      <c r="I63">
+        <v>1260.3</v>
+      </c>
+      <c r="J63">
+        <v>7209.8</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-20.8</v>
+      </c>
+      <c r="N63">
+        <v>2049.1</v>
+      </c>
+      <c r="O63">
+        <v>11391.3</v>
+      </c>
+      <c r="P63">
+        <v>7330.3</v>
+      </c>
+      <c r="Q63">
+        <v>193.6</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4669.6000000000004</v>
+      </c>
+      <c r="U63">
+        <v>929.7</v>
+      </c>
+      <c r="V63">
+        <v>311</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-24.8</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>232.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>170.1</v>
+      </c>
+      <c r="D64">
+        <v>4996.3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1512.4</v>
+      </c>
+      <c r="G64">
+        <v>4449.3999999999996</v>
+      </c>
+      <c r="H64">
+        <v>16329.4</v>
+      </c>
+      <c r="I64">
+        <v>1351.5</v>
+      </c>
+      <c r="J64">
+        <v>7155.7</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2180</v>
+      </c>
+      <c r="O64">
+        <v>11472.5</v>
+      </c>
+      <c r="P64">
+        <v>7301.2</v>
+      </c>
+      <c r="Q64">
+        <v>163.5</v>
+      </c>
+      <c r="R64">
+        <v>42581</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4856.8999999999996</v>
+      </c>
+      <c r="U64">
+        <v>1093.2</v>
+      </c>
+      <c r="V64">
+        <v>369.3</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-27.1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42672</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>171.6</v>
+      </c>
+      <c r="D65">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1520.5</v>
+      </c>
+      <c r="G65">
+        <v>4342.3999999999996</v>
+      </c>
+      <c r="H65">
+        <v>16195</v>
+      </c>
+      <c r="I65">
+        <v>1266.4000000000001</v>
+      </c>
+      <c r="J65">
+        <v>6938</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2134.1999999999998</v>
+      </c>
+      <c r="O65">
+        <v>11147.3</v>
+      </c>
+      <c r="P65">
+        <v>7083.8</v>
+      </c>
+      <c r="Q65">
+        <v>-359.4</v>
+      </c>
+      <c r="R65">
+        <v>42672</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5047.7</v>
+      </c>
+      <c r="U65">
+        <v>733.8</v>
+      </c>
+      <c r="V65">
+        <v>-25</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-238.1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42763</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>321.8</v>
+      </c>
+      <c r="D66">
+        <v>5635.5</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>3090.2</v>
+      </c>
+      <c r="G66">
+        <v>3938</v>
+      </c>
+      <c r="H66">
+        <v>15701.6</v>
+      </c>
+      <c r="I66">
+        <v>1119.5999999999999</v>
+      </c>
+      <c r="J66">
+        <v>6169.7</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2105.9</v>
+      </c>
+      <c r="O66">
+        <v>10312.1</v>
+      </c>
+      <c r="P66">
+        <v>6321.8</v>
+      </c>
+      <c r="Q66">
+        <v>132.6</v>
+      </c>
+      <c r="R66">
+        <v>42763</v>
+      </c>
+      <c r="S66">
+        <v>55300</v>
+      </c>
+      <c r="T66">
+        <v>5389.5</v>
+      </c>
+      <c r="U66">
+        <v>866.4</v>
+      </c>
+      <c r="V66">
+        <v>1018</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-770.5</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>321.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42854</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>200.5</v>
+      </c>
+      <c r="D67">
+        <v>5287.1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1627.1</v>
+      </c>
+      <c r="G67">
+        <v>4278.1000000000004</v>
+      </c>
+      <c r="H67">
+        <v>15994.7</v>
+      </c>
+      <c r="I67">
+        <v>1223.9000000000001</v>
+      </c>
+      <c r="J67">
+        <v>6131.7</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-27.8</v>
+      </c>
+      <c r="N67">
+        <v>2240.6</v>
+      </c>
+      <c r="O67">
+        <v>10385.700000000001</v>
+      </c>
+      <c r="P67">
+        <v>6297.6</v>
+      </c>
+      <c r="Q67">
+        <v>288.5</v>
+      </c>
+      <c r="R67">
+        <v>42854</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5609</v>
+      </c>
+      <c r="U67">
+        <v>1154.9000000000001</v>
+      </c>
+      <c r="V67">
+        <v>430.7</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-33.6</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>200.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42945</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>233.8</v>
+      </c>
+      <c r="D68">
+        <v>5281.2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1627.8</v>
+      </c>
+      <c r="G68">
+        <v>3815.2</v>
+      </c>
+      <c r="H68">
+        <v>15532.3</v>
+      </c>
+      <c r="I68">
+        <v>1196.3</v>
+      </c>
+      <c r="J68">
+        <v>5595</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2084.6999999999998</v>
+      </c>
+      <c r="O68">
+        <v>9672.1</v>
+      </c>
+      <c r="P68">
+        <v>5760.9</v>
+      </c>
+      <c r="Q68">
+        <v>-461.6</v>
+      </c>
+      <c r="R68">
+        <v>42945</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5860.2</v>
+      </c>
+      <c r="U68">
+        <v>693.3</v>
+      </c>
+      <c r="V68">
+        <v>244.5</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-545.5</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>233.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43036</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>239.9</v>
+      </c>
+      <c r="D69">
+        <v>5316.6</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1666</v>
+      </c>
+      <c r="G69">
+        <v>3972.6</v>
+      </c>
+      <c r="H69">
+        <v>15730.2</v>
+      </c>
+      <c r="I69">
+        <v>1181.3</v>
+      </c>
+      <c r="J69">
+        <v>5557</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2039.9</v>
+      </c>
+      <c r="O69">
+        <v>9613.7000000000007</v>
+      </c>
+      <c r="P69">
+        <v>5722.9</v>
+      </c>
+      <c r="Q69">
+        <v>-293.2</v>
+      </c>
+      <c r="R69">
+        <v>43036</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6116.5</v>
+      </c>
+      <c r="U69">
+        <v>400.1</v>
+      </c>
+      <c r="V69">
+        <v>-82.6</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-34.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>4</v>
+      </c>
+      <c r="AA69">
+        <v>239.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1040.0999999999999</v>
+      </c>
+      <c r="D70">
+        <v>6360.6</v>
+      </c>
+      <c r="E70">
+        <v>90.4</v>
+      </c>
+      <c r="F70">
+        <v>3449.7</v>
+      </c>
+      <c r="G70">
+        <v>4576.3</v>
+      </c>
+      <c r="H70">
+        <v>16332.8</v>
+      </c>
+      <c r="I70">
+        <v>1174.8</v>
+      </c>
+      <c r="J70">
+        <v>4762.1000000000004</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2859.1</v>
+      </c>
+      <c r="O70">
+        <v>9150.5</v>
+      </c>
+      <c r="P70">
+        <v>5678</v>
+      </c>
+      <c r="Q70">
+        <v>697.7</v>
+      </c>
+      <c r="R70">
+        <v>43134</v>
+      </c>
+      <c r="S70">
+        <v>56300</v>
+      </c>
+      <c r="T70">
+        <v>7182.3</v>
+      </c>
+      <c r="U70">
+        <v>1097.8</v>
+      </c>
+      <c r="V70">
+        <v>917.6</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-37.9</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>1040.0999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>160.5</v>
+      </c>
+      <c r="D71">
+        <v>5553.7</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1699.6</v>
+      </c>
+      <c r="G71">
+        <v>4042</v>
+      </c>
+      <c r="H71">
+        <v>15827.1</v>
+      </c>
+      <c r="I71">
+        <v>1181.5</v>
+      </c>
+      <c r="J71">
+        <v>5040.1000000000004</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-50</v>
+      </c>
+      <c r="M71">
+        <v>-5432.7</v>
+      </c>
+      <c r="N71">
+        <v>1917.2</v>
+      </c>
+      <c r="O71">
+        <v>8471.4</v>
+      </c>
+      <c r="P71">
+        <v>5040.1000000000004</v>
+      </c>
+      <c r="Q71">
+        <v>-622.6</v>
+      </c>
+      <c r="R71">
+        <v>43225</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7355.7</v>
+      </c>
+      <c r="U71">
+        <v>475.2</v>
+      </c>
+      <c r="V71">
+        <v>387.6</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-828.8</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43316</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="D72">
+        <v>5525.6</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1663.9</v>
+      </c>
+      <c r="G72">
+        <v>4272.8</v>
+      </c>
+      <c r="H72">
+        <v>16103.6</v>
+      </c>
+      <c r="I72">
+        <v>1241.7</v>
+      </c>
+      <c r="J72">
+        <v>5041.8</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1907.4</v>
+      </c>
+      <c r="O72">
+        <v>8456.1</v>
+      </c>
+      <c r="P72">
+        <v>5041.8</v>
+      </c>
+      <c r="Q72">
+        <v>172.1</v>
+      </c>
+      <c r="R72">
+        <v>43316</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7647.5</v>
+      </c>
+      <c r="U72">
+        <v>647.29999999999995</v>
+      </c>
+      <c r="V72">
+        <v>381.2</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>273.89999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>281.8</v>
+      </c>
+      <c r="D73">
+        <v>5538.8</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1671.9</v>
+      </c>
+      <c r="G73">
+        <v>4749.5</v>
+      </c>
+      <c r="H73">
+        <v>16649.3</v>
+      </c>
+      <c r="I73">
+        <v>1365.1</v>
+      </c>
+      <c r="J73">
+        <v>5043.8</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2135.6999999999998</v>
+      </c>
+      <c r="O73">
+        <v>8706.2000000000007</v>
+      </c>
+      <c r="P73">
+        <v>5043.8</v>
+      </c>
+      <c r="Q73">
+        <v>61</v>
+      </c>
+      <c r="R73">
+        <v>43407</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7943.1</v>
+      </c>
+      <c r="U73">
+        <v>708.3</v>
+      </c>
+      <c r="V73">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>3.1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>281.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43498</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-2307</v>
+      </c>
+      <c r="D74">
+        <v>6205.2</v>
+      </c>
+      <c r="E74">
+        <v>100.9</v>
+      </c>
+      <c r="F74">
+        <v>1912.1</v>
+      </c>
+      <c r="G74">
+        <v>4293.3</v>
+      </c>
+      <c r="H74">
+        <v>13501.2</v>
+      </c>
+      <c r="I74">
+        <v>1416.4</v>
+      </c>
+      <c r="J74">
+        <v>4265.3</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2095.6999999999998</v>
+      </c>
+      <c r="O74">
+        <v>7858.3</v>
+      </c>
+      <c r="P74">
+        <v>4265.3</v>
+      </c>
+      <c r="Q74">
+        <v>-261.60000000000002</v>
+      </c>
+      <c r="R74">
+        <v>43498</v>
+      </c>
+      <c r="S74">
+        <v>57200</v>
+      </c>
+      <c r="T74">
+        <v>5642.9</v>
+      </c>
+      <c r="U74">
+        <v>422.1</v>
+      </c>
+      <c r="V74">
+        <v>715.1</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-779.3</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>-2307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="D75">
+        <v>5808.7</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1727.2</v>
+      </c>
+      <c r="G75">
+        <v>4246.1000000000004</v>
+      </c>
+      <c r="H75">
+        <v>19354.3</v>
+      </c>
+      <c r="I75">
+        <v>1186.5</v>
+      </c>
+      <c r="J75">
+        <v>3516.9</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3979.3</v>
+      </c>
+      <c r="O75">
+        <v>13598.4</v>
+      </c>
+      <c r="P75">
+        <v>10332.299999999999</v>
+      </c>
+      <c r="Q75">
+        <v>303.8</v>
+      </c>
+      <c r="R75">
+        <v>43589</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5755.9</v>
+      </c>
+      <c r="U75">
+        <v>725.8</v>
+      </c>
+      <c r="V75">
+        <v>614.1</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-117.5</v>
+      </c>
+      <c r="Y75">
+        <v>4849.5</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>267.89999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43680</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>180.3</v>
+      </c>
+      <c r="D76">
+        <v>5740.6</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1648.5</v>
+      </c>
+      <c r="G76">
+        <v>4340.8</v>
+      </c>
+      <c r="H76">
+        <v>19493.8</v>
+      </c>
+      <c r="I76">
+        <v>1455.4</v>
+      </c>
+      <c r="J76">
+        <v>3518.6</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4094</v>
+      </c>
+      <c r="O76">
+        <v>13628.1</v>
+      </c>
+      <c r="P76">
+        <v>10251</v>
+      </c>
+      <c r="Q76">
+        <v>-102.2</v>
+      </c>
+      <c r="R76">
+        <v>43680</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5865.7</v>
+      </c>
+      <c r="U76">
+        <v>623.4</v>
+      </c>
+      <c r="V76">
+        <v>229.9</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-36.5</v>
+      </c>
+      <c r="Y76">
+        <v>4767.3999999999996</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>180.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>255.8</v>
+      </c>
+      <c r="D77">
+        <v>5746.2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1704.5</v>
+      </c>
+      <c r="G77">
+        <v>4572.3</v>
+      </c>
+      <c r="H77">
+        <v>19742.099999999999</v>
+      </c>
+      <c r="I77">
+        <v>1473.1</v>
+      </c>
+      <c r="J77">
+        <v>3520.2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4179.7</v>
+      </c>
+      <c r="O77">
+        <v>13620.8</v>
+      </c>
+      <c r="P77">
+        <v>10108.799999999999</v>
+      </c>
+      <c r="Q77">
+        <v>-168</v>
+      </c>
+      <c r="R77">
+        <v>43771</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6121.3</v>
+      </c>
+      <c r="U77">
+        <v>433.7</v>
+      </c>
+      <c r="V77">
+        <v>170.5</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-58</v>
+      </c>
+      <c r="Y77">
+        <v>4636</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>255.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>123</v>
+      </c>
+      <c r="D78">
+        <v>6315.3</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>3871.7</v>
+      </c>
+      <c r="G78">
+        <v>4269.3999999999996</v>
+      </c>
+      <c r="H78">
+        <v>19574.599999999999</v>
+      </c>
+      <c r="I78">
+        <v>1336.5</v>
+      </c>
+      <c r="J78">
+        <v>3522.2</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3546.5</v>
+      </c>
+      <c r="O78">
+        <v>13319.8</v>
+      </c>
+      <c r="P78">
+        <v>10031</v>
+      </c>
+      <c r="Q78">
+        <v>105.7</v>
+      </c>
+      <c r="R78">
+        <v>43862</v>
+      </c>
+      <c r="S78">
+        <v>56900</v>
+      </c>
+      <c r="T78">
+        <v>6254.8</v>
+      </c>
+      <c r="U78">
+        <v>539.20000000000005</v>
+      </c>
+      <c r="V78">
+        <v>855.3</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-497.8</v>
+      </c>
+      <c r="Y78">
+        <v>4979.5</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>247.6</v>
+      </c>
+      <c r="D79">
+        <v>6286.8</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1794.9</v>
+      </c>
+      <c r="G79">
+        <v>5165.3999999999996</v>
+      </c>
+      <c r="H79">
+        <v>20471.8</v>
+      </c>
+      <c r="I79">
+        <v>1336.9</v>
+      </c>
+      <c r="J79">
+        <v>3223.3</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-250</v>
+      </c>
+      <c r="N79">
+        <v>4504.2</v>
+      </c>
+      <c r="O79">
+        <v>13951.2</v>
+      </c>
+      <c r="P79">
+        <v>10423.5</v>
+      </c>
+      <c r="Q79">
+        <v>1216</v>
+      </c>
+      <c r="R79">
+        <v>43953</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6520.6</v>
+      </c>
+      <c r="U79">
+        <v>1755.1</v>
+      </c>
+      <c r="V79">
+        <v>959</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>493.6</v>
+      </c>
+      <c r="Y79">
+        <v>4885.2</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>247.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>261.5</v>
+      </c>
+      <c r="D80">
+        <v>6277.6</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1927.6</v>
+      </c>
+      <c r="G80">
+        <v>5232.5</v>
+      </c>
+      <c r="H80">
+        <v>20671</v>
+      </c>
+      <c r="I80">
+        <v>1481</v>
+      </c>
+      <c r="J80">
+        <v>3224.3</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4278.8</v>
+      </c>
+      <c r="O80">
+        <v>13857.4</v>
+      </c>
+      <c r="P80">
+        <v>10290.5</v>
+      </c>
+      <c r="Q80">
+        <v>-4.8</v>
+      </c>
+      <c r="R80">
+        <v>44044</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>6813.6</v>
+      </c>
+      <c r="U80">
+        <v>1750.3</v>
+      </c>
+      <c r="V80">
+        <v>478</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-248.2</v>
+      </c>
+      <c r="Y80">
+        <v>4981.6000000000004</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>261.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>330</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>6177</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>1935.3</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>5171</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>20652.2</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>1587.2</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>3225.3</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>4042.3</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>13691.1</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>9783.9</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>-632</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44135</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>6961.1</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>1118.3</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>296.7</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>-692.1</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>4962.1000000000004</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>502.8</v>
+      </c>
+      <c r="D82">
+        <v>6767.9</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>4112.7</v>
+      </c>
+      <c r="G82">
+        <v>5050.8</v>
+      </c>
+      <c r="H82">
+        <v>20696</v>
+      </c>
+      <c r="I82">
+        <v>1480.5</v>
+      </c>
+      <c r="J82">
+        <v>3226.2</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>3730.3</v>
+      </c>
+      <c r="O82">
+        <v>13410.7</v>
+      </c>
+      <c r="P82">
+        <v>9639.9</v>
+      </c>
+      <c r="Q82">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="R82">
+        <v>44226</v>
+      </c>
+      <c r="S82">
+        <v>60217</v>
+      </c>
+      <c r="T82">
+        <v>7285.3</v>
+      </c>
+      <c r="U82">
+        <v>1416.7</v>
+      </c>
+      <c r="V82">
+        <v>982.6</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>-503.2</v>
+      </c>
+      <c r="Y82">
+        <v>5065.5</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>502.8</v>
       </c>
     </row>
   </sheetData>
